--- a/pred_ohlcv/54_21/2019-10-15 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 TRX ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>400030.2187339205</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>639160.2457166405</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>496435.3722166405</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>933219.2787166404</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>693882.6329166404</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>223406.4751166404</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>238811.9724166404</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>235132.5702166404</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>288718.1096166404</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>288718.1096166404</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>288718.1096166404</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>282928.1906166404</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>283220.5590376904</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>275188.2411376904</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>317293.5042376904</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>317293.5042376904</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>216926.9760471104</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>215395.8135471104</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>215769.5890471104</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>701983.3558471104</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>424538.5118471103</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>524554.7362471104</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>130556.2262471104</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-514920.1298528896</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-317070.4886528896</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-317070.4886528896</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-317070.4886528896</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>307079.4336471104</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-180696.6024528896</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-365553.9610528896</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>407632.7910471105</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>427632.7910471105</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>391986.2979471104</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>901694.6233205704</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>823221.8907205705</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>544740.0644205704</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>564819.4305205704</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>280916.0465022004</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>280916.0465022004</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>281677.0449291904</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>237433.5097291904</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>237433.5097291904</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>137433.5097291904</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-530093.5629708096</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-926208.0795708097</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-892598.7400708097</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6015262.63077081</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-6099876.438560761</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-5985042.21957871</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 TRX ohlcv.xlsx
@@ -2784,7 +2784,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>216926.9760471104</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>215395.8135471104</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>215769.5890471104</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>701983.3558471104</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>424538.5118471103</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>524554.7362471104</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>307079.4336471104</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-180696.6024528896</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-365553.9610528896</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>508769.7315471105</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>427632.7910471105</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>901694.6233205704</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>823221.8907205705</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>544740.0644205704</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>564819.4305205704</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>280916.0465022004</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>281677.0449291904</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>237433.5097291904</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-530093.5629708096</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5099557.96784443</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5082324.22434443</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6061270.39646076</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6147667.93846076</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-6110158.83846076</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-6110158.83846076</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-6099876.438560761</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-6048594.38727871</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-6061965.29647871</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-6061965.29647871</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-5985042.21957871</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-6000306.637178711</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-5975160.637178711</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6023119.820778711</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6010222.084478711</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5457015.84307871</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-5149013.22237871</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5146175.58137871</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-5294483.69849708</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-5294361.70870117</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-5294345.31179301</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-5305011.880893011</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
